--- a/out_template2.xlsx
+++ b/out_template2.xlsx
@@ -457,7 +457,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
